--- a/biology/Zoologie/Afrotyphlops/Afrotyphlops.xlsx
+++ b/biology/Zoologie/Afrotyphlops/Afrotyphlops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Afrotyphlops est un genre de serpents de la famille des Typhlopidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afrotyphlops est un genre de serpents de la famille des Typhlopidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 28 espèces de ce genre se rencontrent en Afrique subsaharienne[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 28 espèces de ce genre se rencontrent en Afrique subsaharienne.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (28 mars 2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (28 mars 2020) :
 Afrotyphlops angolensis (Bocage, 1866)
 Afrotyphlops anomalus (Bocage, 1873)
 Afrotyphlops bibronii (Smith, 1846)
@@ -600,9 +616,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Megatyphlops[3] a été placé en synonymie avec Afrotyphlops par Hedges, Marion, Lipp, Marin et Vidal en 2014[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Megatyphlops a été placé en synonymie avec Afrotyphlops par Hedges, Marion, Lipp, Marin et Vidal en 2014.
 </t>
         </is>
       </c>
@@ -631,7 +649,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Broadley &amp; Wallach, 2009 : A review of the eastern and southern African blind-snakes (Serpentes: Typhlopidae), excluding Letheobia Cope, with the description of two new genera and a new species. Zootaxa, no 2255, p. 1-100 (introduction).</t>
         </is>
